--- a/data/trans_dic/P36$otros-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007507927933772303</v>
+        <v>0.007595669842781587</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002112120118960341</v>
+        <v>0.002108128389937961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0155779339408436</v>
+        <v>0.01548171404966513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00396933119360771</v>
+        <v>0.003867429319552335</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004636631009956749</v>
+        <v>0.004631097161573663</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03200067213933924</v>
+        <v>0.03108100918215764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00710640650636154</v>
+        <v>0.007055243082192168</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004771357256961269</v>
+        <v>0.005472465549122569</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02610889534492731</v>
+        <v>0.02670214406561582</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02898800024604573</v>
+        <v>0.03198718092607115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01929196586891474</v>
+        <v>0.02111154708130335</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05387215947666667</v>
+        <v>0.05073542224149046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02420694548054663</v>
+        <v>0.02452589944122758</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02808239853129992</v>
+        <v>0.02595489010647343</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07265061728262619</v>
+        <v>0.07443191801416449</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02126655932538054</v>
+        <v>0.02131661011236174</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01840484061515029</v>
+        <v>0.01987599675268469</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0541196243014514</v>
+        <v>0.05321194801277525</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006428253495350638</v>
+        <v>0.006369145757838273</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002832714059638669</v>
+        <v>0.002840269360832909</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02729525989169009</v>
+        <v>0.02557112974978966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004499455494912468</v>
+        <v>0.004401381848369736</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007259298046369768</v>
+        <v>0.008349398219153412</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01953705749608581</v>
+        <v>0.01974845677404601</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006869600148834865</v>
+        <v>0.006683427558197018</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006977492379554046</v>
+        <v>0.007198817413069503</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02665945149416214</v>
+        <v>0.02760160511002104</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02298309710321532</v>
+        <v>0.02366585980971863</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01796799394385728</v>
+        <v>0.01662751520042163</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06540602801786095</v>
+        <v>0.06099387212203843</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02056906656749685</v>
+        <v>0.0202413106494964</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02981154694981092</v>
+        <v>0.03145441209640254</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05061272242873727</v>
+        <v>0.05152045915271988</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01741187086668235</v>
+        <v>0.01817935008562156</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01927951447239676</v>
+        <v>0.01995052368928796</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05136495556280196</v>
+        <v>0.04997430620939613</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01595465374457013</v>
+        <v>0.01611064769374012</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005782117810730139</v>
+        <v>0.005558249139158943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02122695684279377</v>
+        <v>0.02045426209657071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002683299203816925</v>
+        <v>0.002832617702100523</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002552492664131251</v>
+        <v>0.002650579227080101</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02055824796085772</v>
+        <v>0.01975344051546991</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01037861430357477</v>
+        <v>0.01071569681950107</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005452985144604093</v>
+        <v>0.005528539980485647</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02405847059663312</v>
+        <v>0.02470442448661262</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04123154184495022</v>
+        <v>0.04187347702246527</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02520220419060979</v>
+        <v>0.0256556679490241</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04909480870938879</v>
+        <v>0.05012764477655002</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0166667973592441</v>
+        <v>0.01700782615630558</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01789861791453623</v>
+        <v>0.01948904900074361</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0470268104736428</v>
+        <v>0.04612442586521025</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02465354307761351</v>
+        <v>0.02493335005148484</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01737843527613975</v>
+        <v>0.01790640579826435</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04339895704406472</v>
+        <v>0.0440159051650642</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006244860277476522</v>
+        <v>0.007101235769689134</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001600692434701301</v>
+        <v>0.001597935844071811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03745509299587459</v>
+        <v>0.03801479174244259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007641814860550132</v>
+        <v>0.007649770065762199</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006947052006788797</v>
+        <v>0.006842197109019281</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0324505366707433</v>
+        <v>0.03135371348294143</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008645842591435944</v>
+        <v>0.008414160063020069</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005339980679755349</v>
+        <v>0.005370052608163207</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03955997045042994</v>
+        <v>0.04007454470240027</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0310093146343744</v>
+        <v>0.03150556583723794</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01746424230207842</v>
+        <v>0.01681278503607155</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07586249272405796</v>
+        <v>0.07450417503073792</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0299694541244659</v>
+        <v>0.03019245968904873</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03027827295530263</v>
+        <v>0.02917105544050008</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06587661601390081</v>
+        <v>0.06621748845603051</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02489616852378647</v>
+        <v>0.02413632375462278</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01898068404064586</v>
+        <v>0.01836994544359847</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06377187210469908</v>
+        <v>0.06488098356874065</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00628276870686338</v>
+        <v>0.006267455408366454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002176769571621276</v>
+        <v>0.00215486836440208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02366263992480657</v>
+        <v>0.02290003990903034</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005273977892442606</v>
+        <v>0.005365635475804882</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004627084400598691</v>
+        <v>0.004583167485592293</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02479260592206559</v>
+        <v>0.02383770394878896</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008652498856661311</v>
+        <v>0.008697070477649929</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004313827145838305</v>
+        <v>0.004556240585821041</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02891708160209376</v>
+        <v>0.02813767671124369</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03292078427342608</v>
+        <v>0.03272222180985541</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0182377665050214</v>
+        <v>0.01639099186115168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06233802198453606</v>
+        <v>0.06188622803101127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03128315535745429</v>
+        <v>0.03114442283877643</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02732713117050891</v>
+        <v>0.02788455411510185</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06613041476955391</v>
+        <v>0.06494601381415972</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02749555911045299</v>
+        <v>0.02721214236217571</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0177833885803643</v>
+        <v>0.01882274167943923</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05831541946204043</v>
+        <v>0.05651640631748897</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009840398934588148</v>
+        <v>0.009729310268181862</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003159857490737657</v>
+        <v>0.003115531188628479</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02330382742928741</v>
+        <v>0.02307657915954942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02532221040149036</v>
+        <v>0.02498958424790746</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.002498753364592166</v>
+        <v>0.00251764798522987</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02675414709296351</v>
+        <v>0.02831709678939622</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02156468900993853</v>
+        <v>0.02204595154277045</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.00436534781800278</v>
+        <v>0.004369717013522931</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03149973107660405</v>
+        <v>0.03133278924830267</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04709007801930543</v>
+        <v>0.04329899173780227</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03076903100619158</v>
+        <v>0.02931845785982153</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06929801731400791</v>
+        <v>0.06475164568613777</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06743565870225279</v>
+        <v>0.06482233031501765</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02400589770992524</v>
+        <v>0.0234959721707898</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0715387641247455</v>
+        <v>0.07244263526951607</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04896433368017094</v>
+        <v>0.04776542865881286</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01991740910618996</v>
+        <v>0.02002210405341337</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06196148900903239</v>
+        <v>0.06095174807068052</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006910188752412873</v>
+        <v>0.00784345525060165</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0126170951971312</v>
+        <v>0.00909938218099037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02270498380716377</v>
+        <v>0.02187609434086297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01340463876174449</v>
+        <v>0.01621327880479915</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02391698529620953</v>
+        <v>0.02562331597842493</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01583490788946632</v>
+        <v>0.0144223349993864</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.006634313060306428</v>
+        <v>0.006642681448218076</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02855056887710074</v>
+        <v>0.02832632918787461</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05760452423178294</v>
+        <v>0.05855980596765668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0745752374749479</v>
+        <v>0.07555384276893762</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07023036196181896</v>
+        <v>0.06641155983872096</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05275495771717095</v>
+        <v>0.05615182772114206</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01641259374718373</v>
+        <v>0.01857792421899696</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07290203459340076</v>
+        <v>0.07282574476809402</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04584255328042211</v>
+        <v>0.04490111443142632</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03353360191481236</v>
+        <v>0.03067323739578747</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06400609816226605</v>
+        <v>0.06273815667720752</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01429753941424679</v>
+        <v>0.01381634488042936</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.007423382084851362</v>
+        <v>0.007002341931683787</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03402752290923115</v>
+        <v>0.03391116801670795</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01275566377236005</v>
+        <v>0.01261682350624962</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.008419246789088832</v>
+        <v>0.008182719399912696</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03471822163333301</v>
+        <v>0.03497164490229357</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01401823320692411</v>
+        <v>0.01421893293507369</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.008406677494961762</v>
+        <v>0.008531376208667712</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0358884110295991</v>
+        <v>0.03608834237308138</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02359012662425734</v>
+        <v>0.0236648487505724</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01486226919958985</v>
+        <v>0.0149959483126035</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04765723345227278</v>
+        <v>0.04782606360207798</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02135878461099495</v>
+        <v>0.02151756395934763</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01559071244046518</v>
+        <v>0.01599089979352171</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04909261917952298</v>
+        <v>0.04889300326992383</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02065066394868495</v>
+        <v>0.02070663838609875</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01378658593534357</v>
+        <v>0.01394003067940766</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04566490188098222</v>
+        <v>0.0458993800567284</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3703</v>
+        <v>3746</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6534</v>
+        <v>6494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1856</v>
+        <v>1808</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12634</v>
+        <v>12271</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6827</v>
+        <v>6778</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4210</v>
+        <v>4829</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21260</v>
+        <v>21743</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14296</v>
+        <v>15775</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8761</v>
+        <v>9588</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22597</v>
+        <v>21282</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11316</v>
+        <v>11466</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12026</v>
+        <v>11115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28683</v>
+        <v>29386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20430</v>
+        <v>20478</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16240</v>
+        <v>17538</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44068</v>
+        <v>43329</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4728</v>
+        <v>4684</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1944</v>
+        <v>1949</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16118</v>
+        <v>15100</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2805</v>
+        <v>2744</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4422</v>
+        <v>5086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9335</v>
+        <v>9082</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9038</v>
+        <v>9324</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30766</v>
+        <v>31853</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16904</v>
+        <v>17406</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12329</v>
+        <v>11409</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38622</v>
+        <v>36017</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12823</v>
+        <v>12619</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18158</v>
+        <v>19159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28522</v>
+        <v>29034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23661</v>
+        <v>24704</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24972</v>
+        <v>25841</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>59277</v>
+        <v>57672</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10128</v>
+        <v>10227</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3926</v>
+        <v>3774</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14203</v>
+        <v>13686</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1851</v>
+        <v>1954</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1809</v>
+        <v>1879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13597</v>
+        <v>13065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13747</v>
+        <v>14193</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7568</v>
+        <v>7673</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32009</v>
+        <v>32869</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26173</v>
+        <v>26580</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17113</v>
+        <v>17421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32849</v>
+        <v>33540</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11496</v>
+        <v>11731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12689</v>
+        <v>13816</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31103</v>
+        <v>30506</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>32654</v>
+        <v>33025</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24120</v>
+        <v>24853</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>57742</v>
+        <v>58562</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3230</v>
+        <v>3673</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24116</v>
+        <v>24476</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3926</v>
+        <v>3930</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4281</v>
+        <v>4216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21027</v>
+        <v>20316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8913</v>
+        <v>8674</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6567</v>
+        <v>6604</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>51105</v>
+        <v>51769</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16039</v>
+        <v>16295</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10716</v>
+        <v>10316</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48845</v>
+        <v>47970</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15395</v>
+        <v>15510</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18657</v>
+        <v>17975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42686</v>
+        <v>42907</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25666</v>
+        <v>24882</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23342</v>
+        <v>22591</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>82382</v>
+        <v>83815</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11309</v>
+        <v>10944</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2131</v>
+        <v>2168</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2067</v>
+        <v>2048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12318</v>
+        <v>11844</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6841</v>
+        <v>6877</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3780</v>
+        <v>3992</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28187</v>
+        <v>27428</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12731</v>
+        <v>12654</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7832</v>
+        <v>7039</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29792</v>
+        <v>29577</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12638</v>
+        <v>12582</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12209</v>
+        <v>12458</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32857</v>
+        <v>32268</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21741</v>
+        <v>21517</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15582</v>
+        <v>16492</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>56844</v>
+        <v>55090</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2879</v>
+        <v>2847</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7791</v>
+        <v>7715</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8684</v>
+        <v>8570</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>10107</v>
+        <v>10697</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>13705</v>
+        <v>14011</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>22431</v>
+        <v>22312</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13778</v>
+        <v>12669</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9532</v>
+        <v>9082</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23168</v>
+        <v>21648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23126</v>
+        <v>22230</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8498</v>
+        <v>8317</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27025</v>
+        <v>27366</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>31118</v>
+        <v>30356</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13221</v>
+        <v>13290</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>44122</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1450</v>
+        <v>1646</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3139</v>
+        <v>2264</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5795</v>
+        <v>5583</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4476</v>
+        <v>5414</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9542</v>
+        <v>10223</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>8611</v>
+        <v>7843</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4231</v>
+        <v>4236</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>18677</v>
+        <v>18531</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12090</v>
+        <v>12291</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18552</v>
+        <v>18795</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17924</v>
+        <v>16949</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>17615</v>
+        <v>18750</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6384</v>
+        <v>7226</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29086</v>
+        <v>29056</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>24929</v>
+        <v>24417</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>21386</v>
+        <v>19562</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>41872</v>
+        <v>41043</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>46750</v>
+        <v>45177</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>25394</v>
+        <v>23954</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>115366</v>
+        <v>114972</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>43053</v>
+        <v>42584</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>29907</v>
+        <v>29067</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>122947</v>
+        <v>123845</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>93151</v>
+        <v>94485</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>58620</v>
+        <v>59490</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>248767</v>
+        <v>250152</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>77135</v>
+        <v>77380</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>50842</v>
+        <v>51299</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>161576</v>
+        <v>162149</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>72090</v>
+        <v>72626</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>55381</v>
+        <v>56803</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>173851</v>
+        <v>173144</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>137223</v>
+        <v>137595</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>96135</v>
+        <v>97205</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>316534</v>
+        <v>318159</v>
       </c>
     </row>
     <row r="36">
